--- a/data.xlsx
+++ b/data.xlsx
@@ -14,28 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>WebPage</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>www.nos.pt</t>
+  </si>
+  <si>
+    <t>Rpinto</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>www.meo.pt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -58,13 +78,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -395,137 +423,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C2" sqref="C2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <f>CONCATENATE($B1,A$2)</f>
-        <v>a1</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:E6" si="0">CONCATENATE(C$1,$A2)</f>
-        <v>b1</v>
-      </c>
-      <c r="D2" t="str">
-        <f t="shared" si="0"/>
-        <v>c1</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" si="0"/>
-        <v>d1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <f>CONCATENATE($B2,A$2)</f>
-        <v>a11</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v>b2</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v>c2</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" si="0"/>
-        <v>d2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <f>CONCATENATE($B3,A$2)</f>
-        <v>a111</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>b3</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>c3</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>d3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <f>CONCATENATE($B4,A$2)</f>
-        <v>a1111</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>b4</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>c4</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>d4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <f>CONCATENATE($B5,A$2)</f>
-        <v>a11111</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>b5</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>c5</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>d5</v>
+      <c r="D3" s="1">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>